--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END2.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_END2.XLSX
@@ -335,10 +335,10 @@
 OUTROS ENSAIOS</t>
   </si>
   <si>
-    <t>RODOLFO LUIZ DE MATOS</t>
-  </si>
-  <si>
-    <t>Matr.: 3416</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <t>IQ_END2</t>
